--- a/HP/zj/202107.xlsx
+++ b/HP/zj/202107.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>2021年06月份旅差费</t>
+    <t>2021年07月份旅差费</t>
   </si>
   <si>
     <t>单号</t>
@@ -41,7 +41,34 @@
     <t>备注</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-014366426
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-014366464+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>公司-电白区罗坑镇罗坑中学-公司</t>
+  </si>
+  <si>
+    <t>黄洪胜</t>
+  </si>
+  <si>
+    <t>52*2</t>
   </si>
   <si>
     <t>自驾小汽车</t>
@@ -1187,7 +1214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1539,7 +1566,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="184" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1561,8 +1591,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1579,7 +1609,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="122" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1610,21 +1640,29 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="28.499565" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="69"/>
+      <c r="B6" s="121" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="72">
-        <v>44378</v>
-      </c>
-      <c r="D6" s="121" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
+        <v>44378.0</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="H6" s="11">
+        <v>104</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="28.499565" customHeight="1" x14ac:dyDescent="0.15">
@@ -1820,7 +1858,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -1832,11 +1870,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202107.xlsx
+++ b/HP/zj/202107.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>2021年07月份旅差费</t>
   </si>
@@ -77,6 +77,30 @@
     <t>HP两台台式机换电源后不通电，电脑已拉回公司</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-014366426
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-014366464+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中一台更换主板、CPU。另一台更换主板。送回给客户。</t>
+  </si>
+  <si>
     <t>、</t>
   </si>
   <si>
@@ -1214,7 +1238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1566,11 +1590,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1592,7 +1613,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1609,7 +1630,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1640,7 +1661,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="28.499565" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="69" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="72">
@@ -1659,21 +1680,37 @@
         <v>13</v>
       </c>
       <c r="H6" s="11">
-        <v>104</v>
+        <v>104.0</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="28.499565" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="69"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="72">
+        <v>44386</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="11">
+        <v>104.0</v>
+      </c>
+      <c r="I7" s="121" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="36.74944" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
@@ -1858,7 +1895,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -1870,11 +1907,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>104</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202107.xlsx
+++ b/HP/zj/202107.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>2021年07月份旅差费</t>
   </si>
@@ -101,6 +101,15 @@
     <t>其中一台更换主板、CPU。另一台更换主板。送回给客户。</t>
   </si>
   <si>
+    <t>公司-农林职业技术学院-公司</t>
+  </si>
+  <si>
+    <t>叶老师</t>
+  </si>
+  <si>
+    <t>跟阿娥去搬4台主机4台显示器回公司。</t>
+  </si>
+  <si>
     <t>、</t>
   </si>
   <si>
@@ -124,7 +133,7 @@
     <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="186" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="38">
+  <fonts count="37" x14ac:knownFonts="37">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -360,11 +369,6 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -746,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1217,28 +1221,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1589,9 +1578,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1612,8 +1598,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1691,7 +1677,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="72">
-        <v>44386</v>
+        <v>44386.0</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>10</v>
@@ -1708,19 +1694,29 @@
       <c r="H7" s="11">
         <v>104.0</v>
       </c>
-      <c r="I7" s="121" t="s">
+      <c r="I7" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36.74944" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="72">
+        <v>44393</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="14"/>
+      <c r="I8" s="14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="14"/>
@@ -1895,7 +1891,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -1907,7 +1903,7 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>

--- a/HP/zj/202107.xlsx
+++ b/HP/zj/202107.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>2021年07月份旅差费</t>
   </si>
@@ -101,13 +101,31 @@
     <t>其中一台更换主板、CPU。另一台更换主板。送回给客户。</t>
   </si>
   <si>
+    <t>无单</t>
+  </si>
+  <si>
     <t>公司-农林职业技术学院-公司</t>
   </si>
   <si>
     <t>叶老师</t>
   </si>
   <si>
+    <t>18*2</t>
+  </si>
+  <si>
     <t>跟阿娥去搬4台主机4台显示器回公司。</t>
+  </si>
+  <si>
+    <t>公司-东汇城祝博士-公司</t>
+  </si>
+  <si>
+    <t>老板叫送去</t>
+  </si>
+  <si>
+    <t>滴滴出行</t>
+  </si>
+  <si>
+    <t>送投影仪</t>
   </si>
   <si>
     <t>、</t>
@@ -133,7 +151,7 @@
     <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="186" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="37">
+  <fonts count="38" x14ac:knownFonts="38">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -369,6 +387,11 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -750,7 +773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1221,13 +1244,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1578,6 +1631,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1598,8 +1657,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1699,34 +1758,56 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="36.74944" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="72">
-        <v>44393</v>
+        <v>44393.0</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11">
+        <v>36</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="14"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="36.74944" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="72">
+        <v>44401</v>
+      </c>
+      <c r="D9" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="122" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="13">
+        <v>20</v>
+      </c>
+      <c r="G9" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="11">
+        <v>20</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="11"/>
@@ -1891,7 +1972,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -1903,11 +1984,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>208</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202107.xlsx
+++ b/HP/zj/202107.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>2021年07月份旅差费</t>
   </si>
@@ -128,6 +128,36 @@
     <t>送投影仪</t>
   </si>
   <si>
+    <t>2021-07-30下午</t>
+  </si>
+  <si>
+    <t>公司-红旗印刷厂-碧水湾2期-公司</t>
+  </si>
+  <si>
+    <t>尾数0529</t>
+  </si>
+  <si>
+    <t>9+6+6</t>
+  </si>
+  <si>
+    <t>送纸张样板</t>
+  </si>
+  <si>
+    <t>CIP-MMDC</t>
+  </si>
+  <si>
+    <t>公司-宝光街道-公司</t>
+  </si>
+  <si>
+    <t>苏德武</t>
+  </si>
+  <si>
+    <t>50*2</t>
+  </si>
+  <si>
+    <t>安装连供打印机</t>
+  </si>
+  <si>
     <t>、</t>
   </si>
   <si>
@@ -773,7 +803,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1259,28 +1289,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1633,9 +1648,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1658,7 +1670,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1777,7 +1789,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="11">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>21</v>
@@ -1788,46 +1800,78 @@
         <v>17</v>
       </c>
       <c r="C9" s="72">
-        <v>44401</v>
-      </c>
-      <c r="D9" s="121" t="s">
+        <v>44401.0</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="122" t="s">
+      <c r="E9" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="13">
-        <v>20</v>
-      </c>
-      <c r="G9" s="121" t="s">
+        <v>20.0</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="11">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="14"/>
+      <c r="B10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="11">
+        <v>21</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="37.499428" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="15">
+        <v>44408</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="11">
+        <v>100</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="14"/>
@@ -1972,7 +2016,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -1984,11 +2028,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>264</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202107.xlsx
+++ b/HP/zj/202107.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>2021年07月份旅差费</t>
   </si>
@@ -158,6 +158,18 @@
     <t>安装连供打印机</t>
   </si>
   <si>
+    <t>公司-双山二路-公司</t>
+  </si>
+  <si>
+    <t>5*2</t>
+  </si>
+  <si>
+    <t>哈罗电动车</t>
+  </si>
+  <si>
+    <t>HP台式机更换SSD（128GB)</t>
+  </si>
+  <si>
     <t>、</t>
   </si>
   <si>
@@ -181,7 +193,7 @@
     <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="186" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="38">
+  <fonts count="37" x14ac:knownFonts="37">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -417,11 +429,6 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -803,7 +810,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1274,28 +1281,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1646,9 +1638,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1669,8 +1658,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1841,18 +1830,18 @@
         <v>13</v>
       </c>
       <c r="H10" s="11">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="37.499428" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="15">
-        <v>44408</v>
+        <v>44408.0</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>32</v>
@@ -1867,7 +1856,7 @@
         <v>13</v>
       </c>
       <c r="H11" s="11">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>35</v>
@@ -1875,13 +1864,25 @@
     </row>
     <row r="12" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="16">
+        <v>44411</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="14"/>
+      <c r="F12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="11">
+        <v>10</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -2016,7 +2017,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2028,11 +2029,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202107.xlsx
+++ b/HP/zj/202107.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>2021年07月份旅差费</t>
   </si>
@@ -158,7 +158,13 @@
     <t>安装连供打印机</t>
   </si>
   <si>
+    <t>WO-014726584</t>
+  </si>
+  <si>
     <t>公司-双山二路-公司</t>
+  </si>
+  <si>
+    <t>黄智勇</t>
   </si>
   <si>
     <t>5*2</t>
@@ -1658,8 +1664,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1863,25 +1869,29 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="C12" s="16">
-        <v>44411</v>
+        <v>44411.0</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="F12" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H12" s="11">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
@@ -2017,7 +2027,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2029,7 +2039,7 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>

--- a/HP/zj/202107.xlsx
+++ b/HP/zj/202107.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>2021年07月份旅差费</t>
   </si>
@@ -176,6 +176,39 @@
     <t>HP台式机更换SSD（128GB)</t>
   </si>
   <si>
+    <t>公司-石油大厦-公司</t>
+  </si>
+  <si>
+    <t>明航</t>
+  </si>
+  <si>
+    <t>送3台联想19寸显示器到石油大厦（公司没车）</t>
+  </si>
+  <si>
+    <t>公司-高凉路联想售后服务站-公司</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>送1台联想一体机去联想售后服务中心（老板叫）</t>
+  </si>
+  <si>
+    <t>WO-014758337</t>
+  </si>
+  <si>
+    <t>公司-水东旦场金村-公司</t>
+  </si>
+  <si>
+    <t>李成银</t>
+  </si>
+  <si>
+    <t>32*2</t>
+  </si>
+  <si>
+    <t>HP台式机换主板</t>
+  </si>
+  <si>
     <t>、</t>
   </si>
   <si>
@@ -199,7 +232,7 @@
     <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="186" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="37">
+  <fonts count="38" x14ac:knownFonts="38">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -435,6 +468,11 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -816,7 +854,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1287,13 +1325,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1644,6 +1697,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1665,7 +1721,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1896,34 +1952,82 @@
     </row>
     <row r="13" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="16">
+        <v>44414</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="11">
+        <v>6</v>
+      </c>
+      <c r="I13" s="121" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="11"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="14"/>
+      <c r="B14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="16">
+        <v>44414</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="13">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="11">
+        <v>6</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="44.999313" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
+      <c r="B15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="16">
+        <v>44414</v>
+      </c>
+      <c r="D15" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="11">
+        <v>64</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="11"/>
@@ -2027,7 +2131,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2039,11 +2143,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>395</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202107.xlsx
+++ b/HP/zj/202107.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>2021年07月份旅差费</t>
   </si>
@@ -209,6 +209,53 @@
     <t>HP台式机换主板</t>
   </si>
   <si>
+    <t>WO-014773608</t>
+  </si>
+  <si>
+    <t>2021.08.10</t>
+  </si>
+  <si>
+    <t>公司-高州桂圆路中国移动-公司</t>
+  </si>
+  <si>
+    <t>周先生</t>
+  </si>
+  <si>
+    <t>34*2</t>
+  </si>
+  <si>
+    <t>HP笔记本换SSD</t>
+  </si>
+  <si>
+    <t>信宜宾馆-信宜安信证券</t>
+  </si>
+  <si>
+    <t>阿波</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2*2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>信宜骑电动车找宾馆</t>
+  </si>
+  <si>
     <t>、</t>
   </si>
   <si>
@@ -854,7 +901,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1340,13 +1387,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1699,6 +1776,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1720,8 +1803,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1956,24 +2039,24 @@
         <v>17</v>
       </c>
       <c r="C13" s="16">
-        <v>44414</v>
+        <v>44414.0</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="121" t="s">
+      <c r="E13" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="13">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="11">
-        <v>6</v>
-      </c>
-      <c r="I13" s="121" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1982,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="16">
-        <v>44414</v>
+        <v>44414.0</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>45</v>
@@ -1991,13 +2074,13 @@
         <v>46</v>
       </c>
       <c r="F14" s="13">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="11">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>47</v>
@@ -2008,9 +2091,9 @@
         <v>48</v>
       </c>
       <c r="C15" s="16">
-        <v>44414</v>
-      </c>
-      <c r="D15" s="121" t="s">
+        <v>44414.0</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="14" t="s">
@@ -2023,31 +2106,63 @@
         <v>13</v>
       </c>
       <c r="H15" s="11">
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="11"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="14"/>
+      <c r="B16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="11">
+        <v>68</v>
+      </c>
+      <c r="I16" s="123" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="69"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="14"/>
+      <c r="B17" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="72">
+        <v>44420</v>
+      </c>
+      <c r="D17" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="11">
+        <v>6</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="14"/>
@@ -2131,7 +2246,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2143,11 +2258,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>471</v>
+        <v>545</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202107.xlsx
+++ b/HP/zj/202107.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>2021年07月份旅差费</t>
   </si>
@@ -256,6 +256,65 @@
     <t>信宜骑电动车找宾馆</t>
   </si>
   <si>
+    <t>公司-化州市鉴江开发区邮政储蓄银行-公司</t>
+  </si>
+  <si>
+    <t>张先生</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清华同方台式机显示器换屏幕。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>屏幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DOA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，显示器已带回公司。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>、</t>
   </si>
   <si>
@@ -901,7 +960,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1402,28 +1461,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1776,13 +1820,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1803,8 +1844,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2119,7 +2160,7 @@
       <c r="C16" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="121" t="s">
+      <c r="D16" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2132,9 +2173,9 @@
         <v>13</v>
       </c>
       <c r="H16" s="11">
-        <v>68</v>
-      </c>
-      <c r="I16" s="123" t="s">
+        <v>68.0</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2143,36 +2184,52 @@
         <v>17</v>
       </c>
       <c r="C17" s="72">
-        <v>44420</v>
-      </c>
-      <c r="D17" s="121" t="s">
+        <v>44420.0</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="122" t="s">
+      <c r="F17" s="13" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="11">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+    <row r="18" spans="1:9" ht="32.249508" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="14">
+        <v>2962732</v>
+      </c>
+      <c r="C18" s="16">
+        <v>44425</v>
+      </c>
+      <c r="D18" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="11">
+        <v>68</v>
+      </c>
+      <c r="I18" s="121" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="14"/>
@@ -2246,7 +2303,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2258,11 +2315,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>545</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202107.xlsx
+++ b/HP/zj/202107.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>2021年07月份旅差费</t>
   </si>
@@ -315,6 +315,47 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>WO-014940385</t>
+  </si>
+  <si>
+    <t>公司-电白区水东镇农工商宿舍-公司</t>
+  </si>
+  <si>
+    <t>陈女士</t>
+  </si>
+  <si>
+    <t>派SSD，客户说是7-20买的新机不同意更换。SSD故障系统无法安装。</t>
+  </si>
+  <si>
+    <t>公司-健康南路碧水湾2期-公司</t>
+  </si>
+  <si>
+    <t>农先生</t>
+  </si>
+  <si>
+    <t>清华同方台式机更换电源</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>送一台修好的清华同方显示器给客户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>、</t>
   </si>
   <si>
@@ -1820,10 +1861,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1844,8 +1885,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H27" activeCellId="0" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2207,12 +2248,12 @@
     </row>
     <row r="18" spans="1:9" ht="32.249508" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="14">
-        <v>2962732</v>
+        <v>2962732.0</v>
       </c>
       <c r="C18" s="16">
-        <v>44425</v>
-      </c>
-      <c r="D18" s="121" t="s">
+        <v>44425.0</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="11" t="s">
@@ -2225,41 +2266,79 @@
         <v>13</v>
       </c>
       <c r="H18" s="11">
+        <v>68.0</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="35.99945" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="16">
+        <v>44431</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="121" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="14"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="14"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="14"/>
+      <c r="I19" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="11"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="11"/>
+      <c r="B20" s="11">
+        <v>2966207</v>
+      </c>
+      <c r="C20" s="16">
+        <v>44432</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="121" t="s">
+        <v>71</v>
+      </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="11"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="11"/>
+      <c r="I20" s="121" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="32.249508" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="14">
+        <v>2965308</v>
+      </c>
+      <c r="C21" s="16">
+        <v>44432</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="122" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
@@ -2303,7 +2382,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2315,7 +2394,7 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>

--- a/HP/zj/202107.xlsx
+++ b/HP/zj/202107.xlsx
@@ -333,7 +333,57 @@
     <t>农先生</t>
   </si>
   <si>
-    <t>清华同方台式机更换电源</t>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清华同方台式机更换电源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停车费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元保安私收，不肯发收据。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1001,7 +1051,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1487,28 +1537,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1861,9 +1896,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1885,8 +1917,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2277,7 +2309,7 @@
         <v>66</v>
       </c>
       <c r="C19" s="16">
-        <v>44431</v>
+        <v>44431.0</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>67</v>
@@ -2294,17 +2326,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="35.99945" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="11">
-        <v>2966207</v>
+        <v>2966207.0</v>
       </c>
       <c r="C20" s="16">
-        <v>44432</v>
+        <v>44432.0</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="121" t="s">
+      <c r="E20" s="11" t="s">
         <v>71</v>
       </c>
       <c r="F20" s="13"/>
@@ -2318,10 +2350,10 @@
     </row>
     <row r="21" spans="1:9" ht="32.249508" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="14">
-        <v>2965308</v>
+        <v>2965308.0</v>
       </c>
       <c r="C21" s="16">
-        <v>44432</v>
+        <v>44432.0</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>63</v>
@@ -2336,7 +2368,7 @@
         <v>13</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="I21" s="122" t="s">
+      <c r="I21" s="14" t="s">
         <v>73</v>
       </c>
     </row>

--- a/HP/zj/202107.xlsx
+++ b/HP/zj/202107.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>2021年07月份旅差费</t>
   </si>
@@ -324,6 +324,9 @@
     <t>陈女士</t>
   </si>
   <si>
+    <t>25*2</t>
+  </si>
+  <si>
     <t>派SSD，客户说是7-20买的新机不同意更换。SSD故障系统无法安装。</t>
   </si>
   <si>
@@ -331,6 +334,9 @@
   </si>
   <si>
     <t>农先生</t>
+  </si>
+  <si>
+    <t>7*2+5</t>
   </si>
   <si>
     <r>
@@ -372,7 +378,7 @@
         <rFont val="永中宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>元保安私收，不肯发收据。</t>
+      <t>元保安私收，不肯给收据。</t>
     </r>
     <r>
       <rPr>
@@ -1917,8 +1923,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2317,13 +2323,17 @@
       <c r="E19" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="G19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="11">
+        <v>50</v>
+      </c>
       <c r="I19" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="35.99945" customHeight="1" x14ac:dyDescent="0.15">
@@ -2334,18 +2344,22 @@
         <v>44432.0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="G20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="11">
+        <v>19</v>
+      </c>
       <c r="I20" s="121" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="32.249508" customHeight="1" x14ac:dyDescent="0.15">
@@ -2367,9 +2381,11 @@
       <c r="G21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="11">
+        <v>68</v>
+      </c>
       <c r="I21" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2414,7 +2430,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2426,11 +2442,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>613</v>
+        <v>750</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
